--- a/mmoRpgClinetFinal/src/main/resources/message/taskMessage.xlsx
+++ b/mmoRpgClinetFinal/src/main/resources/message/taskMessage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14280" windowHeight="8255"/>
+    <workbookView windowWidth="16308" windowHeight="7764"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>任务id</t>
   </si>
@@ -51,10 +51,10 @@
     <t>任务条件类型：articleType</t>
   </si>
   <si>
-    <t>吃一瓶血药</t>
-  </si>
-  <si>
-    <t>吃一瓶血药，又会怎样？</t>
+    <t>击杀异类Zio</t>
+  </si>
+  <si>
+    <t>击杀特定小怪</t>
   </si>
   <si>
     <t>通关余火祭祀场</t>
@@ -79,6 +79,27 @@
   </si>
   <si>
     <t>与npc和治对话</t>
+  </si>
+  <si>
+    <t>第一次组队</t>
+  </si>
+  <si>
+    <t>尝试第一次组队</t>
+  </si>
+  <si>
+    <t>第一次与玩家交易</t>
+  </si>
+  <si>
+    <t>尝试一下交易</t>
+  </si>
+  <si>
+    <t>累计获取20金币</t>
+  </si>
+  <si>
+    <t>累计获取20金币！！</t>
+  </si>
+  <si>
+    <t>使用一瓶红药</t>
   </si>
 </sst>
 </file>
@@ -86,10 +107,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -97,6 +118,127 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -109,136 +251,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,25 +274,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,79 +436,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,73 +454,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,6 +465,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -471,36 +522,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -508,6 +529,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,15 +565,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -552,10 +573,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -564,133 +585,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1049,13 +1070,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" ht="72" spans="1:11">
       <c r="A1" s="1" t="s">
@@ -1106,22 +1127,23 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>4</v>
       </c>
+      <c r="G2"/>
       <c r="H2">
         <v>10</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>1005</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1247,6 +1269,128 @@
       </c>
       <c r="K6">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/mmoRpgClinetFinal/src/main/resources/message/taskMessage.xlsx
+++ b/mmoRpgClinetFinal/src/main/resources/message/taskMessage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16308" windowHeight="7764"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>任务id</t>
   </si>
@@ -51,13 +51,19 @@
     <t>任务条件类型：articleType</t>
   </si>
   <si>
-    <t>击杀异类Zio</t>
+    <t>前置任务：preTaskId</t>
+  </si>
+  <si>
+    <t>后置任务：nextTaskId</t>
+  </si>
+  <si>
+    <t>(主线2/4)击杀异类Zio</t>
   </si>
   <si>
     <t>击杀特定小怪</t>
   </si>
   <si>
-    <t>通关余火祭祀场</t>
+    <t>(主线4/4)通关余火祭祀场</t>
   </si>
   <si>
     <t>展现自己的实力，通关副本吧</t>
@@ -75,7 +81,7 @@
     <t>累计使用技能2次</t>
   </si>
   <si>
-    <t>尝试对话</t>
+    <t>(主线1/4)尝试对话</t>
   </si>
   <si>
     <t>与npc和治对话</t>
@@ -99,7 +105,10 @@
     <t>累计获取20金币！！</t>
   </si>
   <si>
-    <t>使用一瓶红药</t>
+    <t>(主线3/4)学会吃药！</t>
+  </si>
+  <si>
+    <t>使用一瓶普通红药</t>
   </si>
 </sst>
 </file>
@@ -107,10 +116,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -122,58 +131,129 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,79 +267,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,12 +283,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -292,55 +451,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,109 +463,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,32 +477,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,6 +505,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -524,17 +538,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -542,25 +545,31 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -573,10 +582,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,139 +594,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1070,15 +1082,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" ht="72" spans="1:11">
+    <row r="1" ht="72" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1112,16 +1124,27 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1130,11 +1153,13 @@
         <v>8</v>
       </c>
       <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2"/>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
       <c r="H2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I2">
         <v>1005</v>
@@ -1145,16 +1170,22 @@
       <c r="K2">
         <v>2</v>
       </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1177,16 +1208,22 @@
       <c r="K3">
         <v>-1</v>
       </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1209,16 +1246,22 @@
       <c r="K4">
         <v>-1</v>
       </c>
+      <c r="L4">
+        <v>-1</v>
+      </c>
+      <c r="M4">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -1238,16 +1281,22 @@
       <c r="K5">
         <v>-1</v>
       </c>
+      <c r="L5">
+        <v>-1</v>
+      </c>
+      <c r="M5">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1256,10 +1305,13 @@
         <v>3</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>1002</v>
@@ -1270,16 +1322,22 @@
       <c r="K6">
         <v>-1</v>
       </c>
+      <c r="L6">
+        <v>-1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1299,16 +1357,22 @@
       <c r="K7">
         <v>-1</v>
       </c>
+      <c r="L7">
+        <v>-1</v>
+      </c>
+      <c r="M7">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1328,16 +1392,22 @@
       <c r="K8">
         <v>-1</v>
       </c>
+      <c r="L8">
+        <v>-1</v>
+      </c>
+      <c r="M8">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D9">
         <v>20</v>
@@ -1357,16 +1427,22 @@
       <c r="K9">
         <v>-1</v>
       </c>
+      <c r="L9">
+        <v>-1</v>
+      </c>
+      <c r="M9">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1375,13 +1451,11 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G10"/>
       <c r="H10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1391,6 +1465,12 @@
       </c>
       <c r="K10">
         <v>0</v>
+      </c>
+      <c r="L10">
+        <v>9</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/mmoRpgClinetFinal/src/main/resources/message/taskMessage.xlsx
+++ b/mmoRpgClinetFinal/src/main/resources/message/taskMessage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="12528" windowHeight="7775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>任务id</t>
   </si>
@@ -60,7 +60,7 @@
     <t>(主线2/4)击杀异类Zio</t>
   </si>
   <si>
-    <t>击杀特定小怪</t>
+    <t>该怪物在地图城堡中</t>
   </si>
   <si>
     <t>(主线4/4)通关余火祭祀场</t>
@@ -109,6 +109,39 @@
   </si>
   <si>
     <t>使用一瓶普通红药</t>
+  </si>
+  <si>
+    <t>等级提升到5级</t>
+  </si>
+  <si>
+    <t>提升等级吧</t>
+  </si>
+  <si>
+    <t>穿戴装备总等级达到5星</t>
+  </si>
+  <si>
+    <t>第一次加入公会</t>
+  </si>
+  <si>
+    <t>加入公会！</t>
+  </si>
+  <si>
+    <t>第一次pk战胜</t>
+  </si>
+  <si>
+    <t>去攻击玩家吧</t>
+  </si>
+  <si>
+    <t>获得一件极品装备</t>
+  </si>
+  <si>
+    <t>装备星级5星以上就是极品装备</t>
+  </si>
+  <si>
+    <t>第一次加好友</t>
+  </si>
+  <si>
+    <t>交友交友</t>
   </si>
 </sst>
 </file>
@@ -137,20 +170,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -159,8 +178,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,8 +268,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,62 +285,15 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,21 +306,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -283,187 +316,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,41 +519,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -532,6 +530,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,6 +567,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -582,10 +615,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,142 +627,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1082,10 +1112,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1124,17 +1154,17 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2">
@@ -1453,7 +1483,6 @@
       <c r="F10">
         <v>4</v>
       </c>
-      <c r="G10"/>
       <c r="H10">
         <v>10</v>
       </c>
@@ -1471,6 +1500,216 @@
       </c>
       <c r="M10">
         <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>-1</v>
+      </c>
+      <c r="L11">
+        <v>-1</v>
+      </c>
+      <c r="M11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>-1</v>
+      </c>
+      <c r="L12">
+        <v>-1</v>
+      </c>
+      <c r="M12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>13</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>-1</v>
+      </c>
+      <c r="L13">
+        <v>-1</v>
+      </c>
+      <c r="M13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>14</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>-1</v>
+      </c>
+      <c r="L14">
+        <v>-1</v>
+      </c>
+      <c r="M14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>15</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>-1</v>
+      </c>
+      <c r="L15">
+        <v>-1</v>
+      </c>
+      <c r="M15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>16</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>-1</v>
+      </c>
+      <c r="L16">
+        <v>-1</v>
+      </c>
+      <c r="M16">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/mmoRpgClinetFinal/src/main/resources/message/taskMessage.xlsx
+++ b/mmoRpgClinetFinal/src/main/resources/message/taskMessage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12528" windowHeight="7775"/>
+    <workbookView windowWidth="20291" windowHeight="8412"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,13 +102,13 @@
     <t>累计获取20金币</t>
   </si>
   <si>
-    <t>累计获取20金币！！</t>
+    <t>累计获取20金币，微信转账300块！！</t>
   </si>
   <si>
     <t>(主线3/4)学会吃药！</t>
   </si>
   <si>
-    <t>使用一瓶普通红药</t>
+    <t>使用一瓶普通红药 id为3的药品</t>
   </si>
   <si>
     <t>等级提升到5级</t>
@@ -129,7 +129,7 @@
     <t>第一次pk战胜</t>
   </si>
   <si>
-    <t>去攻击玩家吧</t>
+    <t>去攻击玩家吧！冲！</t>
   </si>
   <si>
     <t>获得一件极品装备</t>
@@ -164,6 +164,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -178,6 +192,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -186,6 +238,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -202,48 +299,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,61 +306,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -316,187 +316,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,6 +507,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -534,24 +543,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -563,17 +554,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,6 +587,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -615,10 +615,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,133 +627,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1115,7 +1115,7 @@
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1338,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1449,7 +1449,7 @@
         <v>4</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J9">
         <v>0</v>

--- a/mmoRpgClinetFinal/src/main/resources/message/taskMessage.xlsx
+++ b/mmoRpgClinetFinal/src/main/resources/message/taskMessage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20291" windowHeight="8412"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,10 +69,10 @@
     <t>展现自己的实力，通关副本吧</t>
   </si>
   <si>
-    <t>第一次进入森林</t>
-  </si>
-  <si>
-    <t>森林又有什么神秘?</t>
+    <t>第一次进入城堡</t>
+  </si>
+  <si>
+    <t>城堡又有什么神秘?</t>
   </si>
   <si>
     <t>熟能生巧</t>
@@ -164,21 +164,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,7 +187,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,106 +306,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -316,187 +316,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,9 +512,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,6 +541,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,26 +607,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -615,145 +615,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1115,7 +1115,7 @@
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1268,7 +1268,7 @@
         <v>10</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4">
         <v>0</v>

--- a/mmoRpgClinetFinal/src/main/resources/message/taskMessage.xlsx
+++ b/mmoRpgClinetFinal/src/main/resources/message/taskMessage.xlsx
@@ -108,7 +108,7 @@
     <t>(主线3/4)学会吃药！</t>
   </si>
   <si>
-    <t>使用一瓶普通红药 id为3的药品</t>
+    <t>使用一瓶普通红药 id为1的药品</t>
   </si>
   <si>
     <t>等级提升到5级</t>
@@ -149,10 +149,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -164,9 +164,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,44 +208,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,10 +239,40 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -246,48 +285,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -298,14 +306,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -316,187 +316,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,13 +510,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,33 +551,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,6 +589,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -615,10 +615,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,133 +627,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1115,7 +1115,7 @@
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
